--- a/Docs/Codex_Task_Backlog-20251215.xlsx
+++ b/Docs/Codex_Task_Backlog-20251215.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6C3721-90C9-450F-B4A9-292CB751F423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1F8BB-FAB9-4CEE-9486-C24C279FF3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27285" yWindow="-21255" windowWidth="37950" windowHeight="20310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backlog!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +54,6 @@
   </si>
   <si>
     <t>Codex Task Completion Summary</t>
-  </si>
-  <si>
-    <t>GitHub Issue Link</t>
   </si>
   <si>
     <t>Extra Notes and Test Info</t>
@@ -962,12 +958,6 @@
     <t>Added explicit leader and driver extra-time strategy properties and notifications to keep UI/SimHub consumers aligned with strategy outputs.
 Rebased the “Est. Drive Time After Timer Zero” calculation on strategy results, clamping to a realistic window and resetting values when invalid or non-time-limited.
 https://github.com/Lalabot77/LalaLaunchPlugin/pull/149</t>
-  </si>
-  <si>
-    <t>Testing as per LALA-36</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>LALA-51</t>
@@ -1345,6 +1335,12 @@
   <si>
     <t>LALA-100</t>
   </si>
+  <si>
+    <t>est leader finish detection using timed races (single-class and multi-class). Verify Overall Leader, Class Leader, and Driver finish flags become valid at the correct moment (leader crosses S/F after timer reaches zero). Confirm no false trigger on leader changes and no fuel delta recalculation after the relevant leader has finished. Check that driver “time after zero” matches replay. Lap-limited races currently not covered by this logic.</t>
+  </si>
+  <si>
+    <t>Needs Testing</t>
+  </si>
 </sst>
 </file>
 
@@ -1352,14 +1348,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1388,8 +1376,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,6 +1400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1432,32 +1433,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1958,1607 +1961,1605 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="76.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="52.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="19.42578125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="M3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="M7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="405" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="405" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>122</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="405" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>152</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>161</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="K32" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="405" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G82:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>$M$2:$M$8</formula1>
+      <formula1>$L$2:$L$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B83:B1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>$N$2:$N$7</formula1>
+      <formula1>$M$2:$M$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G81" xr:uid="{7E7AB3AF-0E7E-48DB-B4FB-FB94CD82C390}">
-      <formula1>$N$3:$N$9</formula1>
+      <formula1>$M$3:$M$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82" xr:uid="{416B76CC-C730-43C9-AACD-96E80F4BECB8}">
-      <formula1>$O$2:$O$7</formula1>
+      <formula1>$N$2:$N$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Codex_Task_Backlog-20251215.xlsx
+++ b/Docs/Codex_Task_Backlog-20251215.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED1F8BB-FAB9-4CEE-9486-C24C279FF3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81455441-350D-4D1C-AF03-5697C49DED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27285" yWindow="-21255" windowWidth="37950" windowHeight="20310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="1" r:id="rId1"/>

--- a/Docs/Codex_Task_Backlog-20251215.xlsx
+++ b/Docs/Codex_Task_Backlog-20251215.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81455441-350D-4D1C-AF03-5697C49DED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46867A9C-F8C1-4AE2-BCAE-DF8ED4AC563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -1340,6 +1340,12 @@
   </si>
   <si>
     <t>Needs Testing</t>
+  </si>
+  <si>
+    <t>WillAdd sticking between sessions</t>
+  </si>
+  <si>
+    <t>Noticed WillAdd property is holding value from previous session when in new session with no refuel selected.</t>
   </si>
 </sst>
 </file>
@@ -1964,10 +1970,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,9 +3216,21 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>265</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>

--- a/Docs/Codex_Task_Backlog-20251215.xlsx
+++ b/Docs/Codex_Task_Backlog-20251215.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46867A9C-F8C1-4AE2-BCAE-DF8ED4AC563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943DB48-F2A3-478E-845C-E9D62F7C81DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1815" windowWidth="35280" windowHeight="19065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="315">
   <si>
     <t>ID</t>
   </si>
@@ -1346,6 +1346,18 @@
   </si>
   <si>
     <t>Noticed WillAdd property is holding value from previous session when in new session with no refuel selected.</t>
+  </si>
+  <si>
+    <t>Fuel planner</t>
+  </si>
+  <si>
+    <t>Live leader delta Guard</t>
+  </si>
+  <si>
+    <t>Live leader delta calcs in scenarios like practice should be ignored or at least capped to 2s. This is due to unrealistic situations during practice sessions where people stop on track more.</t>
+  </si>
+  <si>
+    <t>large leader delta live figures capped to 2s.</t>
   </si>
 </sst>
 </file>
@@ -1970,10 +1982,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1993,7 @@
     <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
@@ -3216,7 +3228,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>265</v>
       </c>
@@ -3232,13 +3244,34 @@
       <c r="E41" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>266</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -3566,18 +3599,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G82:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G83:G1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$2:$L$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B83:B1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$2:$M$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G81" xr:uid="{7E7AB3AF-0E7E-48DB-B4FB-FB94CD82C390}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{7E7AB3AF-0E7E-48DB-B4FB-FB94CD82C390}">
       <formula1>$M$3:$M$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B82" xr:uid="{416B76CC-C730-43C9-AACD-96E80F4BECB8}">
       <formula1>$N$2:$N$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42:G82" xr:uid="{F2CCA21D-88C7-48D1-93CF-F25453B1FA2D}">
+      <formula1>$M$2:$M$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
